--- a/biology/Botanique/Rubanier_nain/Rubanier_nain.xlsx
+++ b/biology/Botanique/Rubanier_nain/Rubanier_nain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sparganium natans
-Sparganium natans, de nom commun Rubanier nain, est une plante de la famille des spargianacées[1].
+Sparganium natans, de nom commun Rubanier nain, est une plante de la famille des spargianacées.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Synonymes :
 Sparganium minimum Wallr.</t>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rubanier est très petit, comme l'indique son nom. Ses feuilles très nombreuses forment souvent un tapis, ce qui aide à le repérer dans les mares peu profondes. La floraison a lieu de juin à août[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rubanier est très petit, comme l'indique son nom. Ses feuilles très nombreuses forment souvent un tapis, ce qui aide à le repérer dans les mares peu profondes. La floraison a lieu de juin à août.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante aime les milieux humides. Elle pousse jusqu'à une altitude de 1300 m[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante aime les milieux humides. Elle pousse jusqu'à une altitude de 1300 m.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le rubanier nain est originaire de l'Europe ; on le rencontre principalement dans le nord, le centre et l'est de la France[1].
-En France, il est considéré comme espèce en danger critique dans certaines régions, notamment en Alsace[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rubanier nain est originaire de l'Europe ; on le rencontre principalement dans le nord, le centre et l'est de la France.
+En France, il est considéré comme espèce en danger critique dans certaines régions, notamment en Alsace.
 </t>
         </is>
       </c>
